--- a/src/main/resources/IA.xlsx
+++ b/src/main/resources/IA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\NetBeansProjects\TP_IA_2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A3A89E0-190D-4E7D-9E93-10E7F432FED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D681194-D4AF-4EF9-BA37-327DF823DF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2CFB1037-9DD7-4904-8075-42D87F781E8D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
   <si>
     <t>Mensaje</t>
   </si>
@@ -594,6 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,7 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8714E33-7CEA-4537-AD00-D52262FDE70C}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,16 +959,16 @@
       <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -976,12 +976,12 @@
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -989,12 +989,12 @@
       <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1002,40 +1002,40 @@
       <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       <c r="A8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="D9" s="5"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       <c r="A10" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1082,8 +1082,8 @@
       <c r="A11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="8"/>
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1092,7 +1092,7 @@
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1100,8 +1100,8 @@
       <c r="A12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="G12" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1119,15 +1119,15 @@
       <c r="A13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1135,8 +1135,8 @@
       <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" t="s">
         <v>24</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="G14" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1154,15 +1154,15 @@
       <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1170,15 +1170,15 @@
       <c r="A16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1186,8 +1186,8 @@
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" t="s">
         <v>30</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="G17" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1205,15 +1205,15 @@
       <c r="A18" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1221,15 +1221,15 @@
       <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1237,8 +1237,8 @@
       <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="D20" s="6"/>
       <c r="E20" t="s">
         <v>36</v>
       </c>
@@ -1248,18 +1248,18 @@
       <c r="G20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1268,7 +1268,7 @@
       <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1276,8 +1276,8 @@
       <c r="A22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="G22" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1295,15 +1295,15 @@
       <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1311,8 +1311,8 @@
       <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="G24" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1330,15 +1330,15 @@
       <c r="A25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1346,15 +1346,15 @@
       <c r="A26" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1362,15 +1362,15 @@
       <c r="A27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" t="s">
         <v>50</v>
       </c>
       <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1378,8 +1378,8 @@
       <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" t="s">
         <v>51</v>
       </c>
@@ -1389,34 +1389,34 @@
       <c r="G28" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" t="s">
         <v>53</v>
       </c>
       <c r="F29" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="6"/>
       <c r="E30" t="s">
         <v>52</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="G30" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1434,8 +1434,8 @@
       <c r="A31" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="8"/>
+      <c r="D31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1443,228 +1443,258 @@
       </c>
       <c r="F31" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="G40" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1672,43 +1702,43 @@
       <c r="A58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1716,130 +1746,131 @@
       <c r="A65" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="4"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="4"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>150</v>
       </c>
-      <c r="B70" s="4"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="4"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="4"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="4"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="4"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="4"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="4"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="4"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="4"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="4"/>
+      <c r="B83" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="B2:B6"/>
     <mergeCell ref="B64:B83"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B30:B40"/>
     <mergeCell ref="B41:B56"/>
     <mergeCell ref="B57:B63"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>